--- a/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1747023663844957</v>
+        <v>0.1750553472804706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1732140910793641</v>
+        <v>0.1699097016069989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.144091791119894</v>
+        <v>0.1485657821932113</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2864263505522954</v>
+        <v>0.2923093729373758</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2894091459714988</v>
+        <v>0.281011258973343</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2374168242869863</v>
+        <v>0.2342967266500774</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1852208723487565</v>
+        <v>0.1825279313285924</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1149602902721927</v>
+        <v>0.1152353987671339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2343291488634279</v>
+        <v>0.230213535851997</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2693551490943308</v>
+        <v>0.268408503029916</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1863769722585871</v>
+        <v>0.1863837021964142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3233446857971458</v>
+        <v>0.3213193828847887</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1692714930511985</v>
+        <v>0.1690915228201167</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03273797038002021</v>
+        <v>0.03266302407770538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1276786933821352</v>
+        <v>0.1285356656937389</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2715422439486794</v>
+        <v>0.2731140189987606</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08736537632259787</v>
+        <v>0.0857806729295776</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2156280258582004</v>
+        <v>0.2149903484988421</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2500998499202374</v>
+        <v>0.2512916136727932</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09422634254445371</v>
+        <v>0.09320399674421227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1881243103811443</v>
+        <v>0.1855842211736964</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3592023229321626</v>
+        <v>0.3572303132025708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1790428399387341</v>
+        <v>0.1805585414956647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2862534359854006</v>
+        <v>0.2831580107246268</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2269932182922504</v>
+        <v>0.2252850927422699</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01544489810989016</v>
+        <v>0.01566152371999105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1480944702334465</v>
+        <v>0.1483115334437851</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3650948469611984</v>
+        <v>0.3635535756718193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06948284400674047</v>
+        <v>0.07474178011498603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2414725063070194</v>
+        <v>0.2497813835926208</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1556124012365119</v>
+        <v>0.1548090790385917</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1256158208854427</v>
+        <v>0.1298906185258907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1227393733471486</v>
+        <v>0.1186928988058134</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2722999656787363</v>
+        <v>0.2795045576066401</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.234802001168985</v>
+        <v>0.2416939937810884</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2192305728509314</v>
+        <v>0.2198788639371942</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2030356361387929</v>
+        <v>0.2060742953139414</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2015605604713141</v>
+        <v>0.2033839872979983</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.389271340299174</v>
+        <v>0.3925495680718184</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2828797766777276</v>
+        <v>0.2829679224828446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2746515678690694</v>
+        <v>0.2758561321617698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.478605876420984</v>
+        <v>0.4761493819835765</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1909925230978202</v>
+        <v>0.1878993565539938</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1172401823049549</v>
+        <v>0.1187513752484866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09105200036143171</v>
+        <v>0.09027349513863048</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2648923705651421</v>
+        <v>0.2650511458469959</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.17115463811253</v>
+        <v>0.1737059163393562</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1491863373170147</v>
+        <v>0.1497607937383191</v>
       </c>
     </row>
     <row r="28">
@@ -1030,7 +1030,7 @@
         <v>0.1546882204377477</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
     </row>
     <row r="29">
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
     </row>
     <row r="30">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41033</v>
+        <v>41116</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>39422</v>
+        <v>38670</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24943</v>
+        <v>25718</v>
       </c>
     </row>
     <row r="7">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67275</v>
+        <v>68656</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65867</v>
+        <v>63956</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41099</v>
+        <v>40558</v>
       </c>
     </row>
     <row r="8">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80466</v>
+        <v>79296</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45925</v>
+        <v>46035</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>81517</v>
+        <v>80086</v>
       </c>
     </row>
     <row r="11">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117017</v>
+        <v>116606</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74455</v>
+        <v>74457</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112484</v>
+        <v>111779</v>
       </c>
     </row>
     <row r="12">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>45329</v>
+        <v>45281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9026</v>
+        <v>9005</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23542</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="15">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72715</v>
+        <v>73136</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24087</v>
+        <v>23650</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39758</v>
+        <v>39641</v>
       </c>
     </row>
     <row r="16">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>72246</v>
+        <v>72590</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26890</v>
+        <v>26599</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47098</v>
+        <v>46462</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103762</v>
+        <v>103193</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51095</v>
+        <v>51528</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71665</v>
+        <v>70890</v>
       </c>
     </row>
     <row r="20">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38451</v>
+        <v>38162</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2613</v>
+        <v>2650</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20703</v>
+        <v>20734</v>
       </c>
     </row>
     <row r="23">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61845</v>
+        <v>61584</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11757</v>
+        <v>12647</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33757</v>
+        <v>34919</v>
       </c>
     </row>
     <row r="24">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>33424</v>
+        <v>33252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26036</v>
+        <v>26922</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17234</v>
+        <v>16666</v>
       </c>
     </row>
     <row r="27">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58488</v>
+        <v>60035</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>48667</v>
+        <v>50095</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30782</v>
+        <v>30873</v>
       </c>
     </row>
     <row r="28">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>113565</v>
+        <v>115265</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>109073</v>
+        <v>110060</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>175123</v>
+        <v>176597</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>158225</v>
+        <v>158274</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>148626</v>
+        <v>149278</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>215312</v>
+        <v>214207</v>
       </c>
     </row>
     <row r="32">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>108970</v>
+        <v>107205</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>78665</v>
+        <v>79679</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>38646</v>
+        <v>38316</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>151133</v>
+        <v>151224</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>114840</v>
+        <v>116552</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>63320</v>
+        <v>63564</v>
       </c>
     </row>
     <row r="36">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
     </row>
     <row r="39">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
     </row>
     <row r="40">
